--- a/biology/Biologie cellulaire et moléculaire/Minisatellite/Minisatellite.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Minisatellite/Minisatellite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les minisatellites (ou VNTR pour variable number tandem repeat) sont des séquences du génome répétées en tandem dont la taille du motif unitaire est comprise entre 10 et 60 nucléotides. Elles sont présentes chez toutes les espèces et sont particulièrement étudiées chez l'homme et les bactéries. On les retrouve dans plus de 1000 localisations différentes du génome humain, mais on les retrouve principalement au niveau des télomères où elles vont avoir une fonction de protection de l'acide désoxyribonucléique. Ils ne doivent pas être confondus avec les microsatellites, ou STR, dont la taille ne dépasse pas 13 nucléotides.
 Il est fréquent d'observer des erreurs de réplication dans ces minisatellites, notamment par glissement de réplication, qui sont à l'origine de variations interindividuelles quant au nombre de répétitions. Cette variabilité trouve de nombreuses applications pour l'identification de personnes par la police scientifique, pour les tests de paternité et pour la création d'empreintes génétiques.
@@ -512,7 +524,9 @@
           <t>Bactéries</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les minisatellites polymorphes de différentes souches d'une même espèce bactérienne peuvent être utilisés pour identifier une bactérie.
 </t>
@@ -543,7 +557,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Base de données des minisatellites bactériens
  Portail de la biologie cellulaire et moléculaire                     </t>
